--- a/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Population name.xlsx
+++ b/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Population name.xlsx
@@ -26,16 +26,82 @@
     <t>Comment</t>
   </si>
   <si>
+    <t>children less than four years</t>
+  </si>
+  <si>
+    <t>FOODON_03510256</t>
+  </si>
+  <si>
+    <t>human consumer, adult</t>
+  </si>
+  <si>
+    <t>FOODON_3510188</t>
+  </si>
+  <si>
+    <t>human consumer, athletes</t>
+  </si>
+  <si>
+    <t>FOODON_03510259</t>
+  </si>
+  <si>
+    <t>human consumer, bodybuilders</t>
+  </si>
+  <si>
+    <t>FOODON_03510260</t>
+  </si>
+  <si>
+    <t>human consumer, four years and above</t>
+  </si>
+  <si>
+    <t>FOODON_3510250</t>
+  </si>
+  <si>
+    <t>human consumer, men</t>
+  </si>
+  <si>
+    <t>FOODON_03510251</t>
+  </si>
+  <si>
+    <t>human consumer, menopaused women</t>
+  </si>
+  <si>
+    <t>FOODON_03510261</t>
+  </si>
+  <si>
     <t>human consumer, no age specification</t>
   </si>
   <si>
     <t>FOODON_03510024</t>
   </si>
   <si>
-    <t>infant or toddler food</t>
+    <t>human consumer, pregnant or lactanting women</t>
   </si>
   <si>
-    <t>FOODON_03510020</t>
+    <t>FOODON_03510253</t>
+  </si>
+  <si>
+    <t>human consumer, seniors</t>
+  </si>
+  <si>
+    <t>FOODON_03510254</t>
+  </si>
+  <si>
+    <t>human consumer, teenagers</t>
+  </si>
+  <si>
+    <t>FOODON_03510255</t>
+  </si>
+  <si>
+    <t>human consumer, weight-reducers</t>
+  </si>
+  <si>
+    <t>FOODON_03510262</t>
+  </si>
+  <si>
+    <t>human consumer, women</t>
+  </si>
+  <si>
+    <t>FOODON_03510252</t>
   </si>
   <si>
     <t>infant food</t>
@@ -44,16 +110,16 @@
     <t>FOODON_3510266</t>
   </si>
   <si>
+    <t>infant food, 0 - 3 months</t>
+  </si>
+  <si>
+    <t>FOODON_3510189</t>
+  </si>
+  <si>
     <t>infant food, 0 - 6 months</t>
   </si>
   <si>
     <t>FOODON_3510263</t>
-  </si>
-  <si>
-    <t>infant food, 0 - 3 months</t>
-  </si>
-  <si>
-    <t>FOODON_3510189</t>
   </si>
   <si>
     <t>infant food, 3 - 6 months</t>
@@ -68,85 +134,19 @@
     <t>FOODON_3510191</t>
   </si>
   <si>
+    <t>infant or toddler food</t>
+  </si>
+  <si>
+    <t>FOODON_03510020</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
     <t>toddler food, from 12 months onwards</t>
   </si>
   <si>
     <t>FOODON_3510192</t>
-  </si>
-  <si>
-    <t>children less than four years</t>
-  </si>
-  <si>
-    <t>FOODON_03510256</t>
-  </si>
-  <si>
-    <t>human consumer, four years and above</t>
-  </si>
-  <si>
-    <t>FOODON_3510250</t>
-  </si>
-  <si>
-    <t>human consumer, teenagers</t>
-  </si>
-  <si>
-    <t>FOODON_03510255</t>
-  </si>
-  <si>
-    <t>human consumer, adult</t>
-  </si>
-  <si>
-    <t>FOODON_3510188</t>
-  </si>
-  <si>
-    <t>human consumer, men</t>
-  </si>
-  <si>
-    <t>FOODON_03510251</t>
-  </si>
-  <si>
-    <t>human consumer, seniors</t>
-  </si>
-  <si>
-    <t>FOODON_03510254</t>
-  </si>
-  <si>
-    <t>human consumer, athletes</t>
-  </si>
-  <si>
-    <t>FOODON_03510259</t>
-  </si>
-  <si>
-    <t>human consumer, bodybuilders</t>
-  </si>
-  <si>
-    <t>FOODON_03510260</t>
-  </si>
-  <si>
-    <t>human consumer, weight-reducers</t>
-  </si>
-  <si>
-    <t>FOODON_03510262</t>
-  </si>
-  <si>
-    <t>human consumer, women</t>
-  </si>
-  <si>
-    <t>FOODON_03510252</t>
-  </si>
-  <si>
-    <t>human consumer, pregnant or lactanting women</t>
-  </si>
-  <si>
-    <t>FOODON_03510253</t>
-  </si>
-  <si>
-    <t>human consumer, menopaused women</t>
-  </si>
-  <si>
-    <t>FOODON_03510261</t>
-  </si>
-  <si>
-    <t>Other</t>
   </si>
 </sst>
 </file>
@@ -414,12 +414,12 @@
         <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
         <v>44</v>
